--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,52 +70,55 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
@@ -127,9 +130,6 @@
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -139,40 +139,34 @@
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>grocery</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -741,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3892617449664429</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.374031007751938</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8169014084507042</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.328042328042328</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1944444444444444</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,37 +1011,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1209677419354839</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1061,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7833333333333333</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1087,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7446808510638298</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1113,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.73125</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1139,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7264150943396226</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,13 +1165,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,13 +1191,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,13 +1217,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1249,13 +1243,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1275,13 +1269,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6292428198433421</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,13 +1295,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6046511627906976</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1379,13 +1373,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M24">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,13 +1399,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5730337078651685</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,13 +1425,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,13 +1451,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,13 +1477,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5254237288135594</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="L28">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,13 +1503,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5146443514644351</v>
+        <v>0.453125</v>
       </c>
       <c r="L29">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,13 +1529,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4383561643835616</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,13 +1555,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4358974358974359</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1587,13 +1581,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1613,25 +1607,25 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.40625</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1639,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1483253588516746</v>
+        <v>0.08389261744966443</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>356</v>
+        <v>819</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1665,13 +1659,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.1348837209302326</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1683,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>186</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1691,13 +1685,13 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.1225961538461538</v>
+        <v>0.06104328523862375</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1709,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>365</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1717,25 +1711,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.08277404921700224</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="L37">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>820</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1743,13 +1737,13 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.07103218645948946</v>
+        <v>0.05074971164936563</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>837</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1769,25 +1763,25 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.05401234567901234</v>
+        <v>0.04213483146067416</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>613</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1795,25 +1789,25 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04152249134948097</v>
+        <v>0.02612903225806452</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>831</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1821,77 +1815,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04024333177351427</v>
+        <v>0.01034158570980884</v>
       </c>
       <c r="L41">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.23</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42">
-        <v>0.02650290885585003</v>
-      </c>
-      <c r="L42">
-        <v>82</v>
-      </c>
-      <c r="M42">
-        <v>95</v>
-      </c>
-      <c r="N42">
-        <v>0.86</v>
-      </c>
-      <c r="O42">
-        <v>0.14</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43">
-        <v>0.01064829314124648</v>
-      </c>
-      <c r="L43">
-        <v>34</v>
-      </c>
-      <c r="M43">
-        <v>42</v>
-      </c>
-      <c r="N43">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O43">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
